--- a/Data/assessment/Column_Assessment.xlsx
+++ b/Data/assessment/Column_Assessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bridgeon\Projects\Sales_Dashboard\Data\assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB4B19D-B42B-4BF5-B52D-AE3049F2DFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9053EBE3-0CEE-4823-ABAF-14C8C75D2A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2242" yWindow="2242" windowWidth="19562" windowHeight="10161" firstSheet="4" activeTab="8" xr2:uid="{7EAFF9B4-2379-493D-BD8F-652094AF4A26}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" firstSheet="2" activeTab="8" xr2:uid="{7EAFF9B4-2379-493D-BD8F-652094AF4A26}"/>
   </bookViews>
   <sheets>
     <sheet name="customers" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="109">
   <si>
     <t>Column Name</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Some repeats</t>
   </si>
   <si>
-    <t>Repeat customers can be tracked</t>
-  </si>
-  <si>
     <t>geolocation_zip_code_prefix</t>
   </si>
   <si>
@@ -209,12 +206,6 @@
     <t>payment_value</t>
   </si>
   <si>
-    <t>there 5 , 1 with undefined 3 value are remove</t>
-  </si>
-  <si>
-    <t>Should be &gt;= 1, avoid 0 ,2 rows.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Should be &gt; 0. </t>
   </si>
   <si>
@@ -341,9 +332,6 @@
     <t>order_delivered_customer_date</t>
   </si>
   <si>
-    <t>Should not be null for delivered</t>
-  </si>
-  <si>
     <t>order_estimated_delivery_date</t>
   </si>
   <si>
@@ -356,13 +344,31 @@
     <t>Delivery Days</t>
   </si>
   <si>
-    <t>Filter for “delivered” and remove null values for confirmed deliver to coustomer</t>
-  </si>
-  <si>
     <t>create to check deliver or not</t>
   </si>
   <si>
     <t>check how much days taken to delivery</t>
+  </si>
+  <si>
+    <t>&lt;1%</t>
+  </si>
+  <si>
+    <t>Should be &gt;= 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valid or not </t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>create to check wheter valid or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>only put delivered</t>
   </si>
 </sst>
 </file>
@@ -449,55 +455,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -514,6 +476,17 @@
       <bottom style="medium">
         <color rgb="FFDDDDDD"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -540,44 +513,42 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,18 +867,18 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="161" workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
@@ -956,7 +927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29.9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -975,9 +946,7 @@
       <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -993,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14994</v>
+        <v>3012</v>
       </c>
       <c r="F4">
         <v>22790</v>
@@ -1013,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>4119</v>
+        <v>1144</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -1056,13 +1025,18 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
@@ -1090,10 +1064,10 @@
     </row>
     <row r="2" spans="1:7" ht="29.9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2">
         <v>1000163</v>
@@ -1102,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>19015</v>
+        <v>1043</v>
       </c>
       <c r="F2" s="7">
         <v>24220</v>
@@ -1111,10 +1085,10 @@
     </row>
     <row r="3" spans="1:7" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <v>1000163</v>
@@ -1123,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>717372</v>
+        <v>584686</v>
       </c>
       <c r="F3" s="6">
         <v>-27.1020989999999</v>
@@ -1132,10 +1106,10 @@
     </row>
     <row r="4" spans="1:7" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2">
         <v>1000163</v>
@@ -1144,16 +1118,16 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>717615</v>
+        <v>585030</v>
       </c>
       <c r="F4" s="2">
         <v>-48.629613499999898</v>
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -1165,18 +1139,18 @@
         <v>0</v>
       </c>
       <c r="E5" s="8">
-        <v>8010</v>
+        <v>823</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="44.85" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -1204,247 +1178,253 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45D291D-7C35-4F8E-911E-1E72DAEAFBF1}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView zoomScale="111" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="29.9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="16">
+        <v>112508</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16">
+        <v>88746</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2">
-        <v>110055</v>
-      </c>
-      <c r="D2" s="14">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>96348</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="B3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="16">
+        <v>112508</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16">
+        <v>1</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29.9" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="16">
+        <v>112508</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16">
+        <v>18108</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2">
-        <v>110055</v>
-      </c>
-      <c r="D3" s="14">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="29.9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:7" ht="29.9" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2">
-        <v>110055</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>32186</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="B5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="16">
+        <v>112508</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
+        <v>510</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:7" ht="29.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2">
-        <v>110055</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2970</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="B6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="16">
+        <v>112508</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>79728</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="29.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="16">
+        <v>112508</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>2339</v>
+      </c>
+      <c r="F7" s="16">
+        <v>59.9</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="16">
+        <v>112508</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>2075</v>
+      </c>
+      <c r="F8" s="16">
+        <v>15.1</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="29.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="2">
-        <v>110055</v>
-      </c>
-      <c r="D6" s="14">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>91220</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2">
-        <v>110055</v>
-      </c>
-      <c r="D7" s="14">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>5854</v>
-      </c>
-      <c r="F7" s="2">
-        <v>59.9</v>
-      </c>
-      <c r="G7" s="12" t="s">
+      <c r="C9" s="16">
+        <v>112508</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>74868</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2">
-        <v>110055</v>
-      </c>
-      <c r="D8" s="14">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>6922</v>
-      </c>
-      <c r="F8" s="2">
-        <v>15.1</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:7" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2">
-        <v>110055</v>
-      </c>
-      <c r="D9" s="14">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>88189</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="13" t="s">
+      <c r="B10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="16">
+        <v>112508</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2">
-        <v>110055</v>
-      </c>
-      <c r="D10" s="14">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>48</v>
-      </c>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1454,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E469C1-7FC3-4390-AB5A-0B8E361EFDBA}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1472,141 +1452,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="17">
-        <v>103886</v>
-      </c>
-      <c r="D2" s="18">
-        <v>0</v>
-      </c>
-      <c r="E2" s="17">
-        <v>99440</v>
-      </c>
-      <c r="F2" s="17" t="s">
+      <c r="A2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10">
+        <v>103884</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>96477</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="3" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="10">
+        <v>103884</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="17" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10">
+        <v>103884</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="10">
+        <v>103884</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="17">
-        <v>103886</v>
-      </c>
-      <c r="D3" s="18">
-        <v>0</v>
-      </c>
-      <c r="E3" s="17">
-        <v>29</v>
-      </c>
-      <c r="F3" s="17">
-        <v>1</v>
-      </c>
-      <c r="G3" s="17" t="s">
+      <c r="C6" s="10">
+        <v>103884</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>13098</v>
+      </c>
+      <c r="F6" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="27.85" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="17">
-        <v>103886</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17">
-        <v>5</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27.85" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="17">
-        <v>103886</v>
-      </c>
-      <c r="D5" s="18">
-        <v>0</v>
-      </c>
-      <c r="E5" s="17">
-        <v>23</v>
-      </c>
-      <c r="F5" s="17">
-        <v>1</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="G6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="17">
-        <v>103886</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17">
-        <v>29076</v>
-      </c>
-      <c r="F6" s="17">
-        <v>50</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>57</v>
+    </row>
+    <row r="7" spans="1:7" ht="27.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="14">
+        <v>103884</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1620,7 +1621,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1635,187 +1636,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10">
+        <v>98410</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>98410</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10">
+        <v>98410</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>97924</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="10">
+        <v>98410</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>5</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="17">
+    </row>
+    <row r="5" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10">
         <v>98410</v>
       </c>
-      <c r="D2" s="18">
-        <v>0</v>
-      </c>
-      <c r="E2" s="17">
+      <c r="D5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10">
         <v>98410</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="17">
+      <c r="D6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="10">
         <v>98410</v>
       </c>
-      <c r="D3" s="18">
-        <v>0</v>
-      </c>
-      <c r="E3" s="17">
-        <v>98167</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="17">
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>29</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="10">
         <v>98410</v>
       </c>
-      <c r="D4" s="18">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17">
-        <v>5</v>
-      </c>
-      <c r="F4" s="17">
-        <v>5</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="17">
-        <v>98410</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="17">
-        <v>98410</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="17">
-        <v>98410</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0</v>
-      </c>
-      <c r="E7" s="17">
-        <v>636</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="17">
-        <v>98410</v>
-      </c>
-      <c r="D8" s="18">
-        <v>0</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>41</v>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>98089</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1828,7 +1829,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1843,233 +1844,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="17">
+      <c r="A2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10">
         <v>32336</v>
       </c>
-      <c r="D2" s="18">
-        <v>0</v>
-      </c>
-      <c r="E2" s="17">
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
         <v>32336</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10">
+        <v>32336</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="B4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="10">
+        <v>32336</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="17">
+      <c r="B5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="10">
         <v>32336</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="17">
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="10">
+        <v>32336</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27.85" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="10">
+        <v>32336</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1038</v>
+      </c>
+      <c r="F7" s="10">
+        <v>200</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="10">
+        <v>32336</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <v>16</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="17">
+      <c r="B9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="10">
         <v>32336</v>
       </c>
-      <c r="D4" s="18">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="17">
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>3</v>
+      </c>
+      <c r="F9" s="10">
+        <v>10</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="10">
         <v>32336</v>
       </c>
-      <c r="D5" s="18">
-        <v>0</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="17">
-        <v>32336</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="27.85" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="17">
-        <v>32336</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0</v>
-      </c>
-      <c r="E7" s="17">
-        <v>2201</v>
-      </c>
-      <c r="F7" s="17">
-        <v>200</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="17">
-        <v>32336</v>
-      </c>
-      <c r="D8" s="18">
-        <v>0</v>
-      </c>
-      <c r="E8" s="17">
-        <v>99</v>
-      </c>
-      <c r="F8" s="17">
-        <v>16</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>9</v>
+      </c>
+      <c r="F10" s="10">
+        <v>11</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="17">
-        <v>32336</v>
-      </c>
-      <c r="D9" s="18">
-        <v>0</v>
-      </c>
-      <c r="E9" s="17">
-        <v>102</v>
-      </c>
-      <c r="F9" s="17">
-        <v>10</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="17">
-        <v>32336</v>
-      </c>
-      <c r="D10" s="18">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17">
-        <v>95</v>
-      </c>
-      <c r="F10" s="17">
-        <v>11</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2084,7 +2085,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2095,118 +2096,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="20">
+      <c r="A2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="13">
         <v>3095</v>
       </c>
-      <c r="D2" s="18">
-        <v>0</v>
-      </c>
-      <c r="E2" s="20">
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
         <v>3095</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>68</v>
+      <c r="F2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27.85" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="13">
+        <v>3095</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1709</v>
+      </c>
+      <c r="F3" s="10">
+        <v>14940</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27.85" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="13">
+        <v>3095</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>342</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27.85" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="20">
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="13">
         <v>3095</v>
       </c>
-      <c r="D3" s="18">
-        <v>0</v>
-      </c>
-      <c r="E3" s="17">
-        <v>2246</v>
-      </c>
-      <c r="F3" s="17">
-        <v>14940</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27.85" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="20">
-        <v>3095</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17">
-        <v>611</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27.85" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="20">
-        <v>3095</v>
-      </c>
-      <c r="D5" s="18">
-        <v>0</v>
-      </c>
-      <c r="E5" s="17">
-        <v>23</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2225,72 +2226,72 @@
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="68.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="17">
+      <c r="A2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10">
         <v>71</v>
       </c>
-      <c r="D2" s="18">
-        <v>0</v>
-      </c>
-      <c r="E2" s="17">
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
         <v>71</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>86</v>
+      <c r="G2" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="82.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="17">
+      <c r="A3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10">
         <v>71</v>
       </c>
-      <c r="D3" s="18">
-        <v>0</v>
-      </c>
-      <c r="E3" s="17">
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
         <v>71</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>88</v>
+      <c r="G3" s="10" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2302,268 +2303,268 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1399419F-7E04-481A-ACA4-508DD8B84497}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="20">
+      <c r="A2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="13">
+        <v>99441</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>99441</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="13">
+        <v>99441</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>99441</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27.85" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="13">
+        <v>99441</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>8</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="13">
+        <v>99441</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>98319</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="13">
         <v>99281</v>
       </c>
-      <c r="D2" s="18">
-        <v>0</v>
-      </c>
-      <c r="E2" s="20">
-        <v>99281</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="20">
-        <v>99281</v>
-      </c>
-      <c r="D3" s="18">
-        <v>0</v>
-      </c>
-      <c r="E3" s="21">
-        <v>99281</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="41.45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="20">
-        <v>99281</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17">
-        <v>7</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="D6" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="13">
+        <v>83688</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="20">
-        <v>99281</v>
-      </c>
-      <c r="D5" s="18">
-        <v>0</v>
-      </c>
-      <c r="E5" s="20">
-        <v>98169</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="17" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="B7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="13">
+        <v>97658</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="E7" s="13">
+        <v>70926</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="13">
+        <v>96476</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="E8" s="13">
+        <v>94860</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="20">
-        <v>99281</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0</v>
-      </c>
-      <c r="E6" s="20">
-        <v>83688</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="20">
-        <v>99281</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0.02</v>
-      </c>
-      <c r="E7" s="20">
-        <v>70915</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="17" t="s">
+      <c r="B9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="13">
+        <v>99441</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <v>21</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+    <row r="10" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="20">
-        <v>99281</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="B10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="13">
+        <v>99441</v>
+      </c>
+      <c r="D10" s="11">
         <v>0.03</v>
       </c>
-      <c r="E8" s="20">
-        <v>94846</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="17" t="s">
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27.85" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="20">
-        <v>99281</v>
-      </c>
-      <c r="D9" s="18">
-        <v>0</v>
-      </c>
-      <c r="E9" s="20">
-        <v>22</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="17" t="s">
+      <c r="B11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="13">
+        <v>96476</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="20">
-        <v>99281</v>
-      </c>
-      <c r="D10" s="18">
-        <v>0</v>
-      </c>
-      <c r="E10" s="20">
-        <v>0</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="27.85" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="20">
-        <v>99281</v>
-      </c>
-      <c r="D11" s="18">
-        <v>0.03</v>
-      </c>
-      <c r="E11" s="20">
-        <v>42</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
